--- a/3pl_cypress/cypress/fixtures/fixture_acs2/uat_excel/location_upload.xlsx
+++ b/3pl_cypress/cypress/fixtures/fixture_acs2/uat_excel/location_upload.xlsx
@@ -104,7 +104,7 @@
     <t>a</t>
   </si>
   <si>
-    <t>DFWX1-1713795473</t>
+    <t>DFWX1-1713848818</t>
   </si>
   <si>
     <t>TRUE</t>

--- a/3pl_cypress/cypress/fixtures/fixture_acs2/uat_excel/location_upload.xlsx
+++ b/3pl_cypress/cypress/fixtures/fixture_acs2/uat_excel/location_upload.xlsx
@@ -104,7 +104,7 @@
     <t>a</t>
   </si>
   <si>
-    <t>DFWX1-1713848818</t>
+    <t>DFWX1-1713943140</t>
   </si>
   <si>
     <t>TRUE</t>

--- a/3pl_cypress/cypress/fixtures/fixture_acs2/uat_excel/location_upload.xlsx
+++ b/3pl_cypress/cypress/fixtures/fixture_acs2/uat_excel/location_upload.xlsx
@@ -104,7 +104,7 @@
     <t>a</t>
   </si>
   <si>
-    <t>DFWX1-1713943140</t>
+    <t>DFWX1-1714041389</t>
   </si>
   <si>
     <t>TRUE</t>

--- a/3pl_cypress/cypress/fixtures/fixture_acs2/uat_excel/location_upload.xlsx
+++ b/3pl_cypress/cypress/fixtures/fixture_acs2/uat_excel/location_upload.xlsx
@@ -104,7 +104,7 @@
     <t>a</t>
   </si>
   <si>
-    <t>DFWX1-1714041389</t>
+    <t>DFWX1-1714544937</t>
   </si>
   <si>
     <t>TRUE</t>

--- a/3pl_cypress/cypress/fixtures/fixture_acs2/uat_excel/location_upload.xlsx
+++ b/3pl_cypress/cypress/fixtures/fixture_acs2/uat_excel/location_upload.xlsx
@@ -104,7 +104,7 @@
     <t>a</t>
   </si>
   <si>
-    <t>DFWX1-1714544937</t>
+    <t>DFWX1-1715158184</t>
   </si>
   <si>
     <t>TRUE</t>
